--- a/output.xlsx
+++ b/output.xlsx
@@ -471,10 +471,8 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="B2" t="n">
+        <v>21</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -486,10 +484,8 @@
           <t>Xusall</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>53572</t>
-        </is>
+      <c r="E2" t="n">
+        <v>53572</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -503,10 +499,8 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+      <c r="B3" t="n">
+        <v>19</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -518,10 +512,8 @@
           <t>Bensey</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>45529</t>
-        </is>
+      <c r="E3" t="n">
+        <v>45529</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -535,10 +527,8 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+      <c r="B4" t="n">
+        <v>28</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -550,10 +540,8 @@
           <t>Strirving</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>16901</t>
-        </is>
+      <c r="E4" t="n">
+        <v>16901</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -567,10 +555,8 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="B5" t="n">
+        <v>29</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -582,10 +568,8 @@
           <t>Tulwell</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>81507</t>
-        </is>
+      <c r="E5" t="n">
+        <v>81507</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -599,10 +583,8 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
+      <c r="B6" t="n">
+        <v>26</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,10 +596,8 @@
           <t>Faton</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>56357</t>
-        </is>
+      <c r="E6" t="n">
+        <v>56357</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -631,10 +611,8 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="B7" t="n">
+        <v>22</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -646,10 +624,8 @@
           <t>Barc</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>58332</t>
-        </is>
+      <c r="E7" t="n">
+        <v>58332</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -663,10 +639,8 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="B8" t="n">
+        <v>30</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -678,10 +652,8 @@
           <t>Zrurg</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>80903</t>
-        </is>
+      <c r="E8" t="n">
+        <v>80903</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -695,10 +667,8 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="B9" t="n">
+        <v>25</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -710,10 +680,8 @@
           <t>Perton</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>29229</t>
-        </is>
+      <c r="E9" t="n">
+        <v>29229</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -727,10 +695,8 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+      <c r="B10" t="n">
+        <v>19</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -742,10 +708,8 @@
           <t>Inasridge</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>87493</t>
-        </is>
+      <c r="E10" t="n">
+        <v>87493</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -759,10 +723,8 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="B11" t="n">
+        <v>20</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -774,10 +736,8 @@
           <t>Ouverpolis</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>83293</t>
-        </is>
+      <c r="E11" t="n">
+        <v>83293</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
